--- a/Data/Processed/Angiosperms/missing_powo_ipni/Begoniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Begoniaceae.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gartenflora 35: 402. 1886 </t>
+          <t>Gartenflora 35: 402. 1886</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 13: 85, tab. 9. 1954 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 13: 85, tab. 9. 1954</t>
         </is>
       </c>
       <c r="J121" t="b">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Serv. Florest. 2, no. 1: 22, tab. 3. 1944 </t>
+          <t>Arq. Serv. Florest. 2, no. 1: 22, tab. 3. 1944</t>
         </is>
       </c>
       <c r="J123" t="b">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 10: 135, tab. 5. 1950 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 10: 135, tab. 5. 1950</t>
         </is>
       </c>
       <c r="J125" t="b">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Ilustr. Catarin. [Bego]: 35, t. 10. 1972 </t>
+          <t>Fl. Ilustr. Catarin. [Bego]: 35, t. 10. 1972</t>
         </is>
       </c>
       <c r="J126" t="b">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ill. Hort. 40: 41, pl. 174. 1893 </t>
+          <t>Ill. Hort. 40: 41, pl. 174. 1893</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 324. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 324. 1909</t>
         </is>
       </c>
       <c r="J128" t="b">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Nov. Mineir. 2: 4, tab. 3. 1900 </t>
+          <t>Pl. Nov. Mineir. 2: 4, tab. 3. 1900</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. 17: 4. 1964 </t>
+          <t>Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. 17: 4. 1964</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 76(1): 81. 1953 [Jan 1953] </t>
+          <t>Bot. Jahrb. Syst. 76(1): 81. 1953 [Jan 1953]</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Begonian 57: 217, pl. 1. 1990 </t>
+          <t>Begonian 57: 217, pl. 1. 1990</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 76(1): 71. 1953 [Jan 1953] </t>
+          <t>Bot. Jahrb. Syst. 76(1): 71. 1953 [Jan 1953]</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. 17: 5. 1964 </t>
+          <t>Publ. Mus. Hist. Nat. Javier Prado, Ser. B, Bot. 17: 5. 1964</t>
         </is>
       </c>
       <c r="J134" t="b">
